--- a/Borealis/Borealis GDD.xlsx
+++ b/Borealis/Borealis GDD.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Aurora\Borealis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DE7B30-E76F-4BDE-8F26-B3F74756F312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9156D20E-B8A9-4317-9E26-2E79958FC999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{BFFA35C8-D8ED-45F3-84EB-2F18BCD67EE4}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="2" xr2:uid="{BFFA35C8-D8ED-45F3-84EB-2F18BCD67EE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="1" r:id="rId1"/>
     <sheet name="Enemies" sheetId="2" r:id="rId2"/>
+    <sheet name="Combat Scratch" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
   <si>
     <t>0 - Limbo</t>
   </si>
@@ -187,9 +188,6 @@
     <t>Level</t>
   </si>
   <si>
-    <t>Difficulty</t>
-  </si>
-  <si>
     <t>base stats</t>
   </si>
   <si>
@@ -242,13 +240,70 @@
   </si>
   <si>
     <t>33 - The Fearful Fox</t>
+  </si>
+  <si>
+    <t>seagull</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>% Hit</t>
+  </si>
+  <si>
+    <t>Avg Damage</t>
+  </si>
+  <si>
+    <t>rat</t>
+  </si>
+  <si>
+    <t>boar</t>
+  </si>
+  <si>
+    <t>bear</t>
+  </si>
+  <si>
+    <t>wolverine</t>
+  </si>
+  <si>
+    <t>draugr</t>
+  </si>
+  <si>
+    <t>troll</t>
+  </si>
+  <si>
+    <t>player lvl 1</t>
+  </si>
+  <si>
+    <t>Min Damage</t>
+  </si>
+  <si>
+    <t>Max Damage</t>
+  </si>
+  <si>
+    <t>player lvl 2</t>
+  </si>
+  <si>
+    <t>Player Est</t>
+  </si>
+  <si>
+    <t>player lvl 3</t>
+  </si>
+  <si>
+    <t>player lvl 4</t>
+  </si>
+  <si>
+    <t>player lvl 5</t>
+  </si>
+  <si>
+    <t>Mod</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +313,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -364,10 +426,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -381,12 +444,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -700,7 +768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B725E0-BE02-4D07-80A2-44DD3FFFFCFD}">
   <dimension ref="B1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -876,7 +944,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="K11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L11" s="3"/>
       <c r="T11" s="2" t="s">
@@ -935,10 +1003,10 @@
       <c r="X15" s="5"/>
     </row>
     <row r="16" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="13"/>
       <c r="T16" s="7"/>
       <c r="W16" s="7"/>
     </row>
@@ -1061,7 +1129,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9CE05F-309B-4C47-B4B9-BC089EA5DA51}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -1070,19 +1140,19 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1">
         <v>10</v>
       </c>
       <c r="E1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H1">
         <v>10</v>
@@ -1093,19 +1163,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -1119,25 +1189,25 @@
         <v>49</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1156,15 +1226,15 @@
       </c>
       <c r="E5" s="9">
         <f t="shared" ref="E5:I16" si="0">(E$1+E$2*($B5-1))*$C5</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F5" s="9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G5" s="9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H5" s="9">
         <f t="shared" si="0"/>
@@ -1191,15 +1261,15 @@
       </c>
       <c r="E6" s="9">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F6" s="9">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G6" s="9">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H6" s="9">
         <f t="shared" si="0"/>
@@ -1226,15 +1296,15 @@
       </c>
       <c r="E7" s="9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="0"/>
@@ -1247,7 +1317,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1257,19 +1327,19 @@
       </c>
       <c r="D8" s="9">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="0"/>
-        <v>4.8000000000000007</v>
+        <v>10.4</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" si="0"/>
-        <v>4.8000000000000007</v>
+        <v>10.4</v>
       </c>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
-        <v>4.8000000000000007</v>
+        <v>10.4</v>
       </c>
       <c r="H8" s="9">
         <f t="shared" si="0"/>
@@ -1282,7 +1352,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1292,19 +1362,19 @@
       </c>
       <c r="D9" s="9">
         <f t="shared" ref="D9:I9" si="2">(D$1+D$2*($B9-1))*$C9</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F9" s="9">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H9" s="9">
         <f t="shared" si="2"/>
@@ -1317,7 +1387,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1327,19 +1397,19 @@
       </c>
       <c r="D10" s="9">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="0"/>
-        <v>7.1999999999999993</v>
+        <v>15.6</v>
       </c>
       <c r="F10" s="9">
         <f t="shared" si="0"/>
-        <v>7.1999999999999993</v>
+        <v>15.6</v>
       </c>
       <c r="G10" s="9">
         <f t="shared" si="0"/>
-        <v>7.1999999999999993</v>
+        <v>15.6</v>
       </c>
       <c r="H10" s="9">
         <f t="shared" si="0"/>
@@ -1352,7 +1422,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -1362,19 +1432,19 @@
       </c>
       <c r="D11" s="9">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F11" s="9">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G11" s="9">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H11" s="9">
         <f t="shared" si="0"/>
@@ -1387,7 +1457,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -1397,19 +1467,19 @@
       </c>
       <c r="D12" s="9">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="0"/>
-        <v>8.4</v>
+        <v>19.2</v>
       </c>
       <c r="F12" s="9">
         <f t="shared" si="0"/>
-        <v>8.4</v>
+        <v>19.2</v>
       </c>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
-        <v>8.4</v>
+        <v>19.2</v>
       </c>
       <c r="H12" s="9">
         <f t="shared" si="0"/>
@@ -1422,7 +1492,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -1432,19 +1502,19 @@
       </c>
       <c r="D13" s="9">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F13" s="9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H13" s="9">
         <f t="shared" si="0"/>
@@ -1457,7 +1527,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -1467,19 +1537,19 @@
       </c>
       <c r="D14" s="9">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="0"/>
-        <v>9.6</v>
+        <v>22.8</v>
       </c>
       <c r="F14" s="9">
         <f t="shared" si="0"/>
-        <v>9.6</v>
+        <v>22.8</v>
       </c>
       <c r="G14" s="9">
         <f t="shared" si="0"/>
-        <v>9.6</v>
+        <v>22.8</v>
       </c>
       <c r="H14" s="9">
         <f t="shared" si="0"/>
@@ -1492,7 +1562,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -1502,19 +1572,19 @@
       </c>
       <c r="D15" s="9">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F15" s="9">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G15" s="9">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="H15" s="9">
         <f t="shared" si="0"/>
@@ -1527,7 +1597,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -1537,19 +1607,19 @@
       </c>
       <c r="D16" s="9">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="0"/>
-        <v>10.799999999999999</v>
+        <v>26.4</v>
       </c>
       <c r="F16" s="9">
         <f t="shared" si="0"/>
-        <v>10.799999999999999</v>
+        <v>26.4</v>
       </c>
       <c r="G16" s="9">
         <f t="shared" si="0"/>
-        <v>10.799999999999999</v>
+        <v>26.4</v>
       </c>
       <c r="H16" s="9">
         <f t="shared" si="0"/>
@@ -1558,6 +1628,418 @@
       <c r="I16" s="9">
         <f t="shared" si="0"/>
         <v>62.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D14697-B939-444C-9278-D2F6DE1742C1}">
+  <dimension ref="A2:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="9.578125" customWidth="1"/>
+    <col min="2" max="2" width="12.578125" customWidth="1"/>
+    <col min="3" max="9" width="9.578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>30</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>40</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <f>10+1</f>
+        <v>11</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>22</v>
+      </c>
+      <c r="I4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <f>10+1</f>
+        <v>11</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>19</v>
+      </c>
+      <c r="H5">
+        <v>22</v>
+      </c>
+      <c r="I5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <f>10+1</f>
+        <v>11</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>19</v>
+      </c>
+      <c r="H6">
+        <v>22</v>
+      </c>
+      <c r="I6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="12">
+        <f>0.8-(C$6-$A$6)/10</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D8" s="12">
+        <f t="shared" ref="D8:I8" si="0">0.8-(D$6-$A$6)/10</f>
+        <v>0.9</v>
+      </c>
+      <c r="E8" s="12">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F8" s="12">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G8" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <f t="shared" si="0"/>
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="I8" s="12">
+        <f t="shared" si="0"/>
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9">
+        <f>ROUND(1+($A$4-C$5)/5, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:I9" si="1">ROUND(1+($A$4-D$5)/5, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10">
+        <f>ROUND(3+($A$4-C$5)/5, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:I10" si="2">ROUND(3+($A$4-D$5)/5, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11">
+        <f>ROUND(5+($A$4-C$5)/5, 0)</f>
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:I11" si="3">ROUND(5+($A$4-D$5)/5, 0)</f>
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>40</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>60</v>
+      </c>
+      <c r="H14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15">
+        <f>10+1</f>
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <f>14+2</f>
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <f>18+4</f>
+        <v>22</v>
+      </c>
+      <c r="G15">
+        <f>22+8</f>
+        <v>30</v>
+      </c>
+      <c r="H15">
+        <f>26+8</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16">
+        <f>10+1</f>
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <f>14+1</f>
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <f>18+4</f>
+        <v>22</v>
+      </c>
+      <c r="G16">
+        <f>22+8</f>
+        <v>30</v>
+      </c>
+      <c r="H16">
+        <f>26+8</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <f>10+1</f>
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <f>14+1</f>
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <f>18+2</f>
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <f>22+4</f>
+        <v>26</v>
+      </c>
+      <c r="H17">
+        <f>26+4</f>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Borealis/Borealis GDD.xlsx
+++ b/Borealis/Borealis GDD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Aurora\Borealis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9156D20E-B8A9-4317-9E26-2E79958FC999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8731CF-628C-4163-A9A4-7D65D4074748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="2" xr2:uid="{BFFA35C8-D8ED-45F3-84EB-2F18BCD67EE4}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{BFFA35C8-D8ED-45F3-84EB-2F18BCD67EE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
   <si>
     <t>0 - Limbo</t>
   </si>
@@ -297,6 +297,15 @@
   </si>
   <si>
     <t>Mod</t>
+  </si>
+  <si>
+    <t>35 - Quiet Lane</t>
+  </si>
+  <si>
+    <t>34 - Busy Thoroughfare</t>
+  </si>
+  <si>
+    <t>36 - Peaceful Garden</t>
   </si>
 </sst>
 </file>
@@ -768,7 +777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B725E0-BE02-4D07-80A2-44DD3FFFFCFD}">
   <dimension ref="B1:AA27"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -841,17 +850,28 @@
       <c r="K4" s="7"/>
       <c r="T4" s="7"/>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="3"/>
       <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="K5" s="7"/>
+      <c r="K5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" s="3"/>
       <c r="T5" s="2" t="s">
         <v>20</v>
       </c>
@@ -860,10 +880,14 @@
     <row r="6" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
-      <c r="K6" s="7"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5"/>
       <c r="T6" s="4"/>
       <c r="U6" s="5"/>
     </row>
@@ -1640,7 +1664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D14697-B939-444C-9278-D2F6DE1742C1}">
   <dimension ref="A2:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
